--- a/planning/bug_errors.xlsx
+++ b/planning/bug_errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Bug / Error</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>amended the view with innerHTML to clear</t>
+  </si>
+  <si>
+    <t>More Info button through JS  not clearing old for and displaying new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS/HTML work around </t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -388,6 +394,17 @@
         <v>43485</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning/bug_errors.xlsx
+++ b/planning/bug_errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>All Data loading with the buttons, but not clearing when new button pressed</t>
   </si>
   <si>
-    <t>amended the view with innerHTML to clear</t>
-  </si>
-  <si>
     <t>More Info button through JS  not clearing old for and displaying new</t>
   </si>
   <si>
@@ -68,14 +65,17 @@
     <t>Drop down 'more info' button was pushing only other divs in its row</t>
   </si>
   <si>
-    <t>styling issue - change to position absolute and gave high Z index for overlap of item below</t>
+    <t>Amended the view with innerHTML to clear</t>
+  </si>
+  <si>
+    <t>Styling issue - change to position absolute and gave high Z index for overlap of item below</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,16 +83,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -100,13 +117,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,92 +477,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>43485</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
         <v>43486</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="4">
         <v>43486</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>43489</v>
       </c>
     </row>
